--- a/docs/ST3a/ST3a_06.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_06.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,3311 +505,3930 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731317530.2436128</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731317535.947461</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317530.2436128.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317535.947461.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>280.49</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.66</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.8299999999999841</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731317543.914596</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731317544.5365736</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317543.914596.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317544.5365736.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.81</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.83</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731317546.82083</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731317549.8904417</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317546.82083.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731317549.8904417.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.22</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.61</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-1.389999999999986</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731317559.1047914</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731317566.5343451</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317559.1047914.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317566.5343451.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>129.28</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>129.3</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731317567.0536697</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731317570.846871</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317567.0536697.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317570.846871.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>129.08</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.95</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1300000000000239</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731317570.8608336</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731317571.2305846</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317570.8608336.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317571.2305846.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.95</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.23</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731317575.863</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731317578.3430073</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317575.863.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731317578.3430073.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.62</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.5799999999999841</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731317602.982648</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731317602.982648.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731317602.982648.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6375</v>
       </c>
-      <c r="J10" t="n">
-        <v>6375</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>6448</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-73</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731317616.6730552</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731317625.0289378</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317616.6730552.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317625.0289378.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>500.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>497.15</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.300000000000011</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731317632.9982643</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731317636.4564815</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317632.9982643.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731317636.4564815.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>495.95</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>494.25</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.699999999999989</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731317643.2872736</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731317651.4583242</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317643.2872736.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317651.4583242.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>225.93</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>226.16</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731317656.5246744</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731317660.0720582</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317656.5246744.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731317660.0720582.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>225.36</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>225.38</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731317660.7912734</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731317660.7912734.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731317660.7912734.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>225.07</v>
       </c>
-      <c r="J15" t="n">
-        <v>225.07</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>226.47</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.400000000000006</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731317685.1659882</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731317686.4939172</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317685.1659882.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317686.4939172.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>1003.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>1002.6</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6000000000000227</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731317686.508881</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731317687.9608033</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317686.508881.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317687.9608033.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1002.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1004.2</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.600000000000023</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731317687.9757607</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731317692.6170747</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317687.9757607.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317692.6170747.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1004.2</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1003</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731317693.7015018</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731317695.6909301</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317693.7015018.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731317695.6909301.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1004.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1004.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731317699.993116</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731317700.3924422</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317699.993116.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317700.3924422.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>11.867</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>11.86</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.00700000000000145</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731317700.5038967</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731317700.8743322</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317700.5038967.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317700.8743322.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.855</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>11.842</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.0129999999999999</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731317700.889286</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731317702.8363304</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317700.889286.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317702.8363304.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>11.842</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>11.826</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731317703.459938</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731317704.1789768</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317703.459938.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317704.1789768.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>11.824</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>11.823</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.0009999999999994458</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731317704.591063</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731317716.2585592</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317704.591063.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/CNY1731317716.2585592.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>11.818</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>11.919</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.1010000000000009</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731317729.2029796</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731317729.3522913</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317729.2029796.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317729.3522913.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>125.3</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>125.78</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.480000000000004</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731317729.6720245</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731317745.2551556</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317729.6720245.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731317745.2551556.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>125.48</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>124.6</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.8800000000000097</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731317760.5895395</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731317769.9112384</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317760.5895395.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317769.9112384.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>159.58</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>159.56</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731317769.9261985</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731317770.9848585</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317769.9261985.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317770.9848585.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>159.56</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>159.26</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731317771.0330985</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731317772.0703819</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317771.0330985.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317772.0703819.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>159.14</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>159.18</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04000000000002046</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731317772.0853717</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731317777.5865622</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317772.0853717.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317777.5865622.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>159.18</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>159.06</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731317777.6015494</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731317778.577427</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317777.6015494.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317778.577427.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>159.06</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>159.48</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731317778.9189293</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731317779.7960024</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317778.9189293.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317779.7960024.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>159.64</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>159.56</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07999999999998408</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731317779.8458254</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731317783.3775454</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317779.8458254.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731317783.3775454.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>159.54</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>160.16</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731317784.6974804</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731317786.1400654</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317784.6974804.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317786.1400654.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>49.09</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>48.965</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731317800.286829</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731317809.8570135</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317800.286829.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317809.8570135.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>48.84</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>48.965</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731317824.5088315</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731317825.2622852</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317824.5088315.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317825.2622852.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1385.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1386.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731317832.1013522</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731317835.9457223</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317832.1013522.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317835.9457223.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1361.2</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1368.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>7.399999999999864</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731317836.0005717</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731317840.3237593</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317836.0005717.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317840.3237593.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1368.8</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1369.2</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731317857.1134703</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731317861.389344</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317857.1134703.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317861.389344.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.31</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.64</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.3299999999999983</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731317866.1067746</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731317866.466156</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317866.1067746.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317866.466156.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>60.04</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>60.17</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1300000000000026</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731317888.4067514</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731317892.9196265</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731317888.4067514.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731317892.9196265.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>96.16</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>96.23</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.07000000000000739</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731317897.0471275</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731317898.270824</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317897.0471275.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317898.270824.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>56.14</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>56.19</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731317898.5142307</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731317900.3795483</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317898.5142307.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317900.3795483.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>56.2</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>56.22</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731317900.3945065</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731317902.6218324</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317900.3945065.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317902.6218324.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>56.22</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>56.01</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2100000000000009</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731317906.9968307</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731317909.2774663</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317906.9968307.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317909.2774663.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>56.07</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>55.75</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.3200000000000003</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731317909.7158456</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731317910.1811278</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317909.7158456.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317910.1811278.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>55.68</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>55.36</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3200000000000003</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731317912.6254737</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731317914.2888134</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317912.6254737.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317914.2888134.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>55.27</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>55.32</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731317914.304744</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731317915.3172164</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317914.304744.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317915.3172164.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>55.32</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>55.44</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731317915.3325722</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731317915.3325722.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731317915.3325722.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>55.44</v>
       </c>
-      <c r="J49" t="n">
-        <v>55.44</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.01000000000000512</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731317923.2043388</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731317924.0240188</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317923.2043388.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317924.0240188.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>142.86</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>144.3</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.439999999999998</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731317924.0390093</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731317926.1156487</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317924.0390093.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317926.1156487.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>144.3</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>144.46</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731317927.5722096</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731317937.039915</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317927.5722096.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317937.039915.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>144.22</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>142.46</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-1.759999999999991</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731317937.0548494</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731317946.4393444</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317937.0548494.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317946.4393444.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>142.46</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>143.7</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.239999999999981</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731317946.4543326</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731317947.8694253</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317946.4543326.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317947.8694253.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>143.7</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>144.04</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731317949.1794584</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731317955.6227572</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317949.1794584.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317955.6227572.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>20.081</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>19.945</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1359999999999992</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731317962.9773002</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731317964.3352041</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317962.9773002.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317964.3352041.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>19.708</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>19.712</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.004000000000001336</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731317970.3598104</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731317970.3598104.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731317970.3598104.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>19.849</v>
       </c>
-      <c r="J57" t="n">
-        <v>19.849</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
+      <c r="L57" t="n">
+        <v>19.938</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.08899999999999864</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731317978.2356677</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731317983.3765378</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317978.2356677.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317983.3765378.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>671</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>668.5</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731317983.4251068</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731317988.6615355</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317983.4251068.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317988.6615355.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>668.75</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>667.5</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731317998.7435014</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731318002.916495</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317998.7435014.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318002.916495.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>669.35</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>670.1</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731318002.9324527</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731318002.9324527.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731318002.9324527.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>670.1</v>
       </c>
-      <c r="J61" t="n">
-        <v>670.1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731318006.709715</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731318023.2551198</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318006.709715.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318023.2551198.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>154.6</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>147.12</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-7.47999999999999</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-4.84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731318024.906514</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731318025.0773976</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318024.906514.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318025.0773976.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>147.61</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>147.14</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.4700000000000273</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731318025.1701937</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731318029.0339894</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318025.1701937.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731318029.0339894.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>147.48</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>148.25</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.7700000000000102</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731318030.3791378</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731318030.3791378.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731318030.3791378.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>148.38</v>
       </c>
-      <c r="J65" t="n">
-        <v>148.38</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>149.36</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.9800000000000182</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731318035.8187184</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731318039.9012432</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318035.8187184.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318039.9012432.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>0.09644000000000001</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.0007000000000000062</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731318048.0081816</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731318049.6554492</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318048.0081816.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318049.6554492.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>0.09524000000000001</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>0.09456000000000001</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.00068</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731318049.8901143</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731318053.3564095</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318049.8901143.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/FEES1731318053.3564095.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>0.09494000000000001</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.0003599999999999992</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731318053.3723392</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731318053.3723392.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731318053.3723392.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="J69" t="n">
-        <v>0.09530000000000001</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.0002599999999999963</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731318075.5923266</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731318075.5923266.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731318075.5923266.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>2888.1</v>
       </c>
-      <c r="J70" t="n">
-        <v>2888.1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
+      <c r="L70" t="n">
+        <v>2909.55</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-21.45000000000027</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +4442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3832,6 +4466,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3840,11 +4489,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.2399999999999949</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.02999999999999936</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3858,6 +4516,15 @@
       <c r="C3" t="n">
         <v>7</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.2228571428571432</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3871,6 +4538,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.7879999999999938</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3884,6 +4560,15 @@
       <c r="C5" t="n">
         <v>5</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.01799999999999997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.7500000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3892,11 +4577,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.779999999999973</v>
+        <v>-8.759999999999991</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>-2.189999999999998</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3905,11 +4599,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0003800000000000053</v>
+        <v>-0.000120000000000009</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-3.000000000000225e-05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.1299999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.03</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3923,6 +4626,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.007500000000000284</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02999999999999997</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3931,11 +4643,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2</v>
+        <v>-1.600000000000023</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.4000000000000057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3949,6 +4670,15 @@
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.7500000000000284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3962,6 +4692,15 @@
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.7333333333333295</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,11 +4709,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1319999999999979</v>
+        <v>0.04299999999999926</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.01433333333333309</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3983,11 +4731,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2499999999999716</v>
+        <v>1.649999999999977</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.5499999999999924</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -4001,6 +4758,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>2.666666666666591</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4014,6 +4780,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.09999999999999787</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4027,6 +4802,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4040,6 +4824,15 @@
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4053,6 +4846,15 @@
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3200000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -4061,11 +4863,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-21.45000000000027</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-21.45000000000027</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -4074,11 +4885,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-73</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-1.15</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -4092,6 +4912,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.07000000000000739</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -4105,6 +4934,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
